--- a/biology/Zoologie/James_Ellsworth_De_Kay/James_Ellsworth_De_Kay.xlsx
+++ b/biology/Zoologie/James_Ellsworth_De_Kay/James_Ellsworth_De_Kay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Ellsworth De Kay (ou DeKay ou Dekay) est un zoologiste américain, né le 12 octobre 1792 à Lisbonne et mort le 21 novembre 1851 à Oyster Bay (New York).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses parents partent s’installer à New York alors qu’il n’avait que deux ans. Orphelin de bonne heure, il fait ses études à l’université Yale de 1807 à 1812 mais n’obtient aucun diplôme. Il étudie plus tard la médecine à l’université d'Édimbourg et est diplômé en 1819.
 Il revient aux États-Unis d'Amérique et se marie avec Janet Eckford. De Kay voyage, avec son beau-frère, en Turquie comme médecin de marine. Il fait paraître le récit de son voyage sous le titre de Sketches of Turkey in 1831 and 1832.
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « James Ellsworth De Kay » (voir la liste des auteurs) (version du 4 mars 2006).</t>
         </is>
